--- a/hmda/test/test1.xlsx
+++ b/hmda/test/test1.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,15 +25,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,23 +54,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,13 +445,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="38.33203125" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -439,7 +462,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -453,7 +476,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ONE</t>
+          <t>V001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,10 +498,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ONE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>TEST</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TWO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>TEST</t>
         </is>
